--- a/inst/app/www/redcapoutput_cleaned.xlsx
+++ b/inst/app/www/redcapoutput_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bach\Dropbox\Shiny\ShinyLink\inst\app\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFA6A8-147A-4E52-9EA6-A6A74282013C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0313C412-95D6-4589-9AA2-4BF324DF01AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14560" yWindow="6080" windowWidth="28800" windowHeight="15370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="175">
   <si>
     <t>tracking_id</t>
   </si>
@@ -55,31 +55,31 @@
     <t>child_source_form</t>
   </si>
   <si>
-    <t>Andrews</t>
-  </si>
-  <si>
-    <t>Chance</t>
-  </si>
-  <si>
-    <t>Banks</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Bartolin</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Biller</t>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
-    <t>Ann</t>
+    <t>ANDREWS</t>
+  </si>
+  <si>
+    <t>CHANCE</t>
+  </si>
+  <si>
+    <t>BANKS</t>
+  </si>
+  <si>
+    <t>ANDREW</t>
+  </si>
+  <si>
+    <t>BARTOLIN</t>
+  </si>
+  <si>
+    <t>MATT</t>
+  </si>
+  <si>
+    <t>BILLER</t>
+  </si>
+  <si>
+    <t>VALERIE</t>
+  </si>
+  <si>
+    <t>ANN</t>
   </si>
   <si>
     <t>BOWERS</t>
@@ -521,9 +521,6 @@
   </si>
   <si>
     <t>FRANK</t>
-  </si>
-  <si>
-    <t>ANDREW</t>
   </si>
   <si>
     <t>S</t>
@@ -907,20 +904,20 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.36328125" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
+    <col min="7" max="7" width="17.54296875" customWidth="1"/>
     <col min="8" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -2845,10 +2842,10 @@
         <v>152</v>
       </c>
       <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" t="s">
         <v>167</v>
-      </c>
-      <c r="F70" t="s">
-        <v>168</v>
       </c>
       <c r="H70" s="2">
         <v>1</v>
@@ -2871,10 +2868,10 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
+        <v>168</v>
+      </c>
+      <c r="E71" t="s">
         <v>169</v>
-      </c>
-      <c r="E71" t="s">
-        <v>170</v>
       </c>
       <c r="H71" s="2">
         <v>1</v>
@@ -2897,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
         <v>66</v>
@@ -2923,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" t="s">
         <v>172</v>
-      </c>
-      <c r="E73" t="s">
-        <v>173</v>
       </c>
       <c r="F73" t="s">
         <v>35</v>
@@ -2952,10 +2949,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
+        <v>173</v>
+      </c>
+      <c r="E74" t="s">
         <v>174</v>
-      </c>
-      <c r="E74" t="s">
-        <v>175</v>
       </c>
       <c r="H74" s="2">
         <v>3</v>
